--- a/Defect Prevention Report.xlsx
+++ b/Defect Prevention Report.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28824"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_7104835C8B15E477018AE98AAFFAED8F1AFC71A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6FF6301-2DC1-454B-9F10-FA91CC4885CD}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{516055C9-FBF6-40E0-B404-F2B76D424B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01DAFAA2-6348-4591-972A-3D1576593475}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPR" sheetId="1" r:id="rId1"/>
     <sheet name="Defect Coverage" sheetId="3" r:id="rId2"/>
-    <sheet name="Bug details" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Bug details" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bug details'!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Bug details'!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Defect Coverage'!$A$1:$I$45</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="214">
   <si>
     <t>Requirement</t>
   </si>
@@ -66,8 +69,7 @@
     <t>Module</t>
   </si>
   <si>
-    <t>Missed Scenario in Requirement and 
-Generated By AI Co-pilot</t>
+    <t>Missed scenario in Requirement, and generated by AI Co-Pilot</t>
   </si>
   <si>
     <t>650204-1</t>
@@ -85,9 +87,6 @@
     <t>668678 -1</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>670748-1</t>
   </si>
   <si>
@@ -118,7 +117,7 @@
     <t>Beacon FCM 1.1.1.2</t>
   </si>
   <si>
-    <t>14 and 1NA</t>
+    <t>14 and 1 NA</t>
   </si>
   <si>
     <t>AVG</t>
@@ -179,24 +178,6 @@
   </si>
   <si>
     <t>BL</t>
-  </si>
-  <si>
-    <t>The system must allow successful creation of Core users in the User Management module without throwing any exceptions.</t>
-  </si>
-  <si>
-    <t>FCM-741</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
-    <t>Missed TC by team</t>
-  </si>
-  <si>
-    <t>Early-stage Defect</t>
-  </si>
-  <si>
-    <t>The system must allow users to update dispositions in the Oracle module without triggering a "Something went wrong" error message.</t>
   </si>
   <si>
     <t>Regularized SMA Movement accounts
@@ -223,6 +204,24 @@
 SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
 SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
 Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.</t>
+  </si>
+  <si>
+    <t>The system must allow successful creation of Core users in the User Management module without throwing any exceptions.</t>
+  </si>
+  <si>
+    <t>FCM-741</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Missed TC by team</t>
+  </si>
+  <si>
+    <t>Early-stage Defect</t>
+  </si>
+  <si>
+    <t>The system must allow users to update dispositions in the Oracle module without triggering a "Something went wrong" error message.</t>
   </si>
   <si>
     <t>User Story: Regularized SMA Movement Accounts
@@ -491,12 +490,11 @@
 Additional Validation Points:
 Forward NPA Movement - Product Wise Graph: Ensure count/amount checking is properly implemented.
 Forward NPA Movement Graph: Verify count/amount checking is correctly applied."
-The Forward SMA Movement (SQL) graph must display zero values in the Count and Amount sections for categories with no data when a specific Channel (other than 'ALL') is selected.
-The Consolidated Forward NPA Movement (Count/Amount - In Lakhs) graph must display zero values for months with no data even when the "Compare With" option is used, without omitting the month or misrepresenting the graph.
+Forward NPA Movement (SQL): Count and Amount showing as 0 in Consolidated Forward NPA Movement graph when there is no data under a particular month and "compare with" is used
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Forward NPA Movement Accounts
+    <t>"Forward NPA Movement Accounts
 As a Core application user (HO, ZO, RO, Branch users),
 I want to view the Forward NPA Movement data in both chart and table formats with count, amount, and percentage details,
 So that I can analyze the data effectively using different visualization and filtering options.
@@ -515,8 +513,77 @@
 Additional Validation Points:
 Forward NPA Movement - Product Wise Graph: Ensure count/amount checking is properly implemented.
 Forward NPA Movement Graph: Verify count/amount checking is correctly applied."
-The Forward SMA Movement (SQL) graph must display zero values in the Count and Amount sections for categories with no data when a specific Channel (other than 'ALL') is selected.
-</t>
+Forward NPA Movement (Oracle): "No data found" showing in graphs where count logic is implemented</t>
+  </si>
+  <si>
+    <t>updated the user story</t>
+  </si>
+  <si>
+    <t>Regularized SMA Movement accounts
+As a Core application user (HO, ZO, RO, Branch users),
+I want to view the Regularized SMA Movement data in different breakdowns with count, amount, and percentage details,
+So that I can analyze the status of allocated, pending, and regularized SMA accounts effectively.
+Acceptance Criteria:
+On the initial load, the Chart View should be displayed by default.
+Both Chart View and Table View must display the main labels: Count/Amount and Count/Percentage.
+To view detailed data for Count/Amount or Count/Percentage, users must switch to Table View from Chart View.
+Users should be able to apply input filters (e.g., select Month/Year) to refine the data.
+If an account appears under different channels within the same month, its count should be considered only once (no duplication of account count).
+The Count/Amount and Count/Percentage labels should be displayed when using the Compare With or Group By options.
+The SMA statuses should be categorized as:
+Allocated
+Pending
+Regularized
+Collected (Applicable for Product-Wise View only)
+Graphs Included:
+SMA Regularized: Consolidated View (Count/Percentage)
+SMA Regularized: Allocated vs. Regularized (Count/Amount)
+Product Wise View of SMA Regularized Accounts (Count/Amount)
+Additional Validation Points:
+SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
+SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
+Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.Forward SMA Movement (SQL) : The Count and Amount section shows as 0 when there is no data under a particular category, and the Channel selected is other than 'ALL'</t>
+  </si>
+  <si>
+    <t>verify detailed data is showing when switch to table view</t>
+  </si>
+  <si>
+    <t>Count/Amount or Count/Percentage    values should be displayed detail in table view</t>
+  </si>
+  <si>
+    <t>Regularized SMA Movement accounts
+As a Core application user (HO, ZO, RO, Branch users),
+I want to view the Regularized SMA Movement data in different breakdowns with count, amount, and percentage details,
+So that I can analyze the status of allocated, pending, and regularized SMA accounts effectively.
+Acceptance Criteria:
+On the initial load, the Chart View should be displayed by default.
+Both Chart View and Table View must display the main labels: Count/Amount and Count/Percentage.
+To view detailed data for Count/Amount or Count/Percentage, users must switch to Table View from Chart View.
+Users should be able to apply input filters (e.g., select Month/Year) to refine the data.
+If an account appears under different channels within the same month, its count should be considered only once (no duplication of account count).
+The Count/Amount and Count/Percentage labels should be displayed when using the Compare With or Group By options.
+The SMA statuses should be categorized as:
+Allocated
+Pending
+Regularized
+Collected (Applicable for Product-Wise View only)
+Graphs Included:
+SMA Regularized: Consolidated View (Count/Percentage)
+SMA Regularized: Allocated vs. Regularized (Count/Amount)
+Product Wise View of SMA Regularized Accounts (Count/Amount)
+Additional Validation Points:
+SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
+SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
+Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.Forward SMA/NPA Movement (SQL) : Movement Amount showing is wrong in Table View of Consolidated Forward SMA/NPA Movement(Count / Amount In Lakhs) Graph</t>
+  </si>
+  <si>
+    <t>Verify Count/Amount is Display in Consolidated Forward NPA Movement graph</t>
+  </si>
+  <si>
+    <t>Count/Amount column should be present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system must use a forward slash (/) instead of a backward slash () to differentiate between Count and Amount in the SQL-based reports </t>
   </si>
   <si>
     <t>Regularized SMA Movement accounts
@@ -543,13 +610,41 @@
 SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
 SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
 Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
-The system must display zero values for Count and Amount in the Forward SMA Movement (SQL) report when there is no data under a specific SMA category and a Channel other than 'ALL' is selected.</t>
-  </si>
-  <si>
-    <t>verify detailed data is showing when switch to table view</t>
-  </si>
-  <si>
-    <t>Count/Amount or Count/Percentage    values should be displayed detail in table view</t>
+reflect accurate data—even when there is no data available under a category like Backward SMA Movement, in which case the count section must still be shown with a value of zero or a ‘No data available’ message without breaking layout or functionality."</t>
+  </si>
+  <si>
+    <t>AI missed scenario</t>
+  </si>
+  <si>
+    <t>User Story:
+Regularized SMA Movement accounts
+As a Core application user (HO, ZO, RO, Branch users),
+I want to view the Regularized SMA Movement data in different breakdowns with count, amount, and percentage details,
+So that I can analyze the status of allocated, pending, and regularized SMA accounts effectively.
+Acceptance Criteria:
+On the initial load, the Chart View should be displayed by default.
+Both Chart View and Table View must display the main labels: Count/Amount and Count/Percentage.
+To view detailed data for Count/Amount or Count/Percentage, users must switch to Table View from Chart View.
+Users should be able to apply input filters (e.g., select Month/Year) to refine the data.
+If an account appears under different channels within the same month, its count should be considered only once (no duplication of account count).
+The Count/Amount and Count/Percentage labels should be displayed when using the Compare With or Group By options.
+The SMA statuses should be categorized as:
+Allocated
+Pending
+Regularized
+Collected (Applicable for Product-Wise View only)
+Graphs Included:
+SMA Regularized: Consolidated View (Count/Percentage)
+SMA Regularized: Allocated vs. Regularized (Count/Amount)
+Product Wise View of SMA Regularized Accounts (Count/Amount)
+Additional Validation Points:
+SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
+SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
+Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
+Additional Acceptance Criteria for Backward SMA Movement:
+In the Backward SMA Movement (Count – Amount) (In Lakhs) graph, if a particular channel is selected and there is no data under that category, the count section must still be displayed.
+The section should show a value of zero or a clear message like "No data available".
+The layout must remain visually consistent, with no missing sections or UI disruptions, and the application should handle this case without errors.</t>
   </si>
   <si>
     <t>Regularized SMA Movement accounts
@@ -575,17 +670,7 @@
 Additional Validation Points:
 SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
 SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
-Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
-The Table View of the Consolidated Forward SMA/NPA Movement (Count / Amount in Lakhs) graph must display the correct Movement Amounts, consistent with the actual data and graph values.</t>
-  </si>
-  <si>
-    <t>Verify Count/Amount is Display in Consolidated Forward NPA Movement graph</t>
-  </si>
-  <si>
-    <t>Count/Amount column should be present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The system must use a forward slash (/) instead of a backward slash () to differentiate between Count and Amount in the SQL-based reports </t>
+Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for."When applying the 'Compare with' filter, categories with no associated data should be omitted or display a clear message such as 'No data available' instead of showing 0 in the 'Count and Amount' section.</t>
   </si>
   <si>
     <t>Regularized SMA Movement accounts
@@ -611,92 +696,7 @@
 Additional Validation Points:
 SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
 SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
-Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
-The Count section in the Backward SMA Movement (SQL) report must display zero when there is no data under a specific category, rather than omitting it.</t>
-  </si>
-  <si>
-    <t>AI missed scenario</t>
-  </si>
-  <si>
-    <t>Regularized SMA Movement accounts
-As a Core application user (HO, ZO, RO, Branch users),
-I want to view the Regularized SMA Movement data in different breakdowns with count, amount, and percentage details,
-So that I can analyze the status of allocated, pending, and regularized SMA accounts effectively.
-Acceptance Criteria:
-On the initial load, the Chart View should be displayed by default.
-Both Chart View and Table View must display the main labels: Count/Amount and Count/Percentage.
-To view detailed data for Count/Amount or Count/Percentage, users must switch to Table View from Chart View.
-Users should be able to apply input filters (e.g., select Month/Year) to refine the data.
-If an account appears under different channels within the same month, its count should be considered only once (no duplication of account count).
-The Count/Amount and Count/Percentage labels should be displayed when using the Compare With or Group By options.
-The SMA statuses should be categorized as:
-Allocated
-Pending
-Regularized
-Collected (Applicable for Product-Wise View only)
-Graphs Included:
-SMA Regularized: Consolidated View (Count/Percentage)
-SMA Regularized: Allocated vs. Regularized (Count/Amount)
-Product Wise View of SMA Regularized Accounts (Count/Amount)
-Additional Validation Points:
-SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
-SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
-Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
-The Count section in the Backward SMA Movement (Count / Amount in Lakhs) graph must display zero for categories with no data when a specific channel is selected, instead of hiding them.</t>
-  </si>
-  <si>
-    <t>Regularized SMA Movement accounts
-As a Core application user (HO, ZO, RO, Branch users),
-I want to view the Regularized SMA Movement data in different breakdowns with count, amount, and percentage details,
-So that I can analyze the status of allocated, pending, and regularized SMA accounts effectively.
-Acceptance Criteria:
-On the initial load, the Chart View should be displayed by default.
-Both Chart View and Table View must display the main labels: Count/Amount and Count/Percentage.
-To view detailed data for Count/Amount or Count/Percentage, users must switch to Table View from Chart View.
-Users should be able to apply input filters (e.g., select Month/Year) to refine the data.
-If an account appears under different channels within the same month, its count should be considered only once (no duplication of account count).
-The Count/Amount and Count/Percentage labels should be displayed when using the Compare With or Group By options.
-The SMA statuses should be categorized as:
-Allocated
-Pending
-Regularized
-Collected (Applicable for Product-Wise View only)
-Graphs Included:
-SMA Regularized: Consolidated View (Count/Percentage)
-SMA Regularized: Allocated vs. Regularized (Count/Amount)
-Product Wise View of SMA Regularized Accounts (Count/Amount)
-Additional Validation Points:
-SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
-SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
-Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
-The Count and Amount sections in the Backward SMA Movement (SQL) report must display zero for categories with no data when the "Compare With" filter is applied, without hiding or omitting them.</t>
-  </si>
-  <si>
-    <t>Regularized SMA Movement accounts
-As a Core application user (HO, ZO, RO, Branch users),
-I want to view the Regularized SMA Movement data in different breakdowns with count, amount, and percentage details,
-So that I can analyze the status of allocated, pending, and regularized SMA accounts effectively.
-Acceptance Criteria:
-On the initial load, the Chart View should be displayed by default.
-Both Chart View and Table View must display the main labels: Count/Amount and Count/Percentage.
-To view detailed data for Count/Amount or Count/Percentage, users must switch to Table View from Chart View.
-Users should be able to apply input filters (e.g., select Month/Year) to refine the data.
-If an account appears under different channels within the same month, its count should be considered only once (no duplication of account count).
-The Count/Amount and Count/Percentage labels should be displayed when using the Compare With or Group By options.
-The SMA statuses should be categorized as:
-Allocated
-Pending
-Regularized
-Collected (Applicable for Product-Wise View only)
-Graphs Included:
-SMA Regularized: Consolidated View (Count/Percentage)
-SMA Regularized: Allocated vs. Regularized (Count/Amount)
-Product Wise View of SMA Regularized Accounts (Count/Amount)
-Additional Validation Points:
-SMA Regularized: Consolidated View – Ensure that Allocated/Pending/Regularized cases are correctly reflected.
-SMA Regularized: Allocated vs. Regularized View – Verify that Allocated/Pending/Regularized cases are included.
-Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.
-The Product-wise graph in the Backward SMA Movement (Oracle) report must display all movement categories consistently, showing zero values when there is no data under a category.</t>
+Product Wise View of SMA Regularized Accounts – Validate that Allocated/Pending/Regularized/Collected cases are properly accounted for.In the Product-wise graph for Backward SMA Movement (Oracle), display only Movement Categories that have associated data to ensure clarity and relevance.</t>
   </si>
   <si>
     <t>Verify Count/Percentage is Display in  Consolidated Backward SMA Movement( graph</t>
@@ -727,6 +727,12 @@
 Conduct UI testing to ensure proper placement and display of the "Remarks" column.</t>
   </si>
   <si>
+    <t>When a disposition action is initiated in the Collection Agency module (Oracle), the system should execute the action without errors, provided all required inputs are correctly entered.</t>
+  </si>
+  <si>
+    <t>Logic Issue</t>
+  </si>
+  <si>
     <t>Addition of "Remarks" Column in Follow-Up List Report
 As a Core application user,
 I want to see an additional "Remarks" column in the Follow-Up List Report,
@@ -746,11 +752,19 @@
 Additional Considerations:
 Ensure that the column does not disrupt existing filters, sorting, or pagination within the report.
 Validate that the remarks are correctly mapped from the disposition page to the report.
-Conduct UI testing to ensure proper placement and display of the "Remarks" column.
-The system must allow disposition to be taken in the Collection Agency (Oracle) module without showing any error.</t>
-  </si>
-  <si>
-    <t>Logic Issue</t>
+Conduct UI testing to ensure proper placement and display of the "Remarks" column.The system must allow users to successfully update and save dispositions from the disposition window in the Core module without errors.</t>
+  </si>
+  <si>
+    <t>FCM-740</t>
+  </si>
+  <si>
+    <t>Update Disposition and Add Remark</t>
+  </si>
+  <si>
+    <t>Remark is saved successfully for the disposition update.</t>
+  </si>
+  <si>
+    <t>Coding  Issue UI</t>
   </si>
   <si>
     <t>Addition of "Remarks" Column in Follow-Up List Report
@@ -772,20 +786,7 @@
 Additional Considerations:
 Ensure that the column does not disrupt existing filters, sorting, or pagination within the report.
 Validate that the remarks are correctly mapped from the disposition page to the report.
-Conduct UI testing to ensure proper placement and display of the "Remarks" column.
-The system must allow users to successfully update and save dispositions from the disposition window in the Core module without errors.</t>
-  </si>
-  <si>
-    <t>FCM-740</t>
-  </si>
-  <si>
-    <t>Update Disposition and Add Remark</t>
-  </si>
-  <si>
-    <t>Remark is saved successfully for the disposition update.</t>
-  </si>
-  <si>
-    <t>Coding  Issue UI</t>
+Conduct UI testing to ensure proper placement and display of the "Remarks" column.Users should be able to successfully perform disposition actions from the 'Updation of Disposition' window in the Collection Agency module without encountering errors, provided all required inputs are correctly entered.</t>
   </si>
   <si>
     <t>Addition of "Remarks" Column in Follow-Up List Report
@@ -807,31 +808,7 @@
 Additional Considerations:
 Ensure that the column does not disrupt existing filters, sorting, or pagination within the report.
 Validate that the remarks are correctly mapped from the disposition page to the report.
-Conduct UI testing to ensure proper placement and display of the "Remarks" column.
-The system must allow users to successfully update and save dispositions from the disposition window in the Collection Agency module without errors.</t>
-  </si>
-  <si>
-    <t>Addition of "Remarks" Column in Follow-Up List Report
-As a Core application user,
-I want to see an additional "Remarks" column in the Follow-Up List Report,
-So that I can view the remarks captured during the disposition update for each account.
-Acceptance Criteria:
-Addition of "Remarks" Column:
-A new column named "Remarks" must be added to the Follow-Up List Report in the Report section.
-The "Remarks" column should be placed immediately after the "Sub-Disposition" column.
-Data Population in "Remarks" Column:
-The remarks should be fetched from the Disposition Updation Page, where users input them.
-If no remarks are recorded for a particular account, "NA" should be displayed in the "Remarks" column.
-Report Consistency:
-The addition of the "Remarks" column should not impact the existing structure or functionality of the Follow-Up List Report.
-The data should be properly aligned and formatted for readability.
-User Accessibility:
-Users should be able to export the Follow-Up List Report with the newly added "Remarks" column.
-Additional Considerations:
-Ensure that the column does not disrupt existing filters, sorting, or pagination within the report.
-Validate that the remarks are correctly mapped from the disposition page to the report.
-Conduct UI testing to ensure proper placement and display of the "Remarks" column.
-The system must display dispositions taken from the mobile app correctly in the Follow Up List report without any discrepancies.</t>
+Conduct UI testing to ensure proper placement and display of the "Remarks" column.Dispositions updated via the mobile app should be reflected in the Follow-Up List Report, including their associated remarks, to maintain consistency across platforms.</t>
   </si>
   <si>
     <t>Lengthy Remark Disposition on Mobile</t>
@@ -889,8 +866,7 @@
 Additional Considerations:
 Ensure UI consistency when adding WhatsApp as a notification type.
 Validate that the WhatsApp message format aligns with the existing notification structures.
-Confirm that the history and logging functionalities work seamlessly for WhatsApp templates.
-The system must display WhatsApp notification data correctly in the Follow-up and Summary Report and the Daily Alerts Status Report without omissions.</t>
+Confirm that the history and logging functionalities work seamlessly for WhatsApp templates.WhatsApp notification data should be displayed in the Follow-Up Report, Summary Report, and Daily Alerts Status Report, consistent with other notification types such as SMS, Email, and Notice.</t>
   </si>
   <si>
     <t>Not Available</t>
@@ -937,13 +913,10 @@
     <t xml:space="preserve"> MB_-419</t>
   </si>
   <si>
-    <t>DataInconsistency</t>
-  </si>
-  <si>
     <t>Not an defect</t>
   </si>
   <si>
-    <t>Updated User Story:
+    <t>User Story:
 When a customer raises a complaint or suggestion via the mobile application, it should appear in the complaint module of the admin portal.
 The complaint entry must include the following fields:
 Customer ID
@@ -957,9 +930,6 @@
 The complaint window must include an Export Button that enables admins to download complaint records in tabular format.
 Complaint reports must be visible and accessible in the MyBank admin portal.
 "complaint report not showing in mybank admin portal"</t>
-  </si>
-  <si>
-    <t>DataFetch</t>
   </si>
   <si>
     <t>Verify Registered Complaints in Admin</t>
@@ -984,258 +954,54 @@
 "export button not working in mybank"</t>
   </si>
   <si>
-    <t>Gap- Product knowledge (Functionality)</t>
-  </si>
-  <si>
     <t>Display Contact Info Option in Admin</t>
   </si>
   <si>
     <t>Option is available in exported data</t>
   </si>
   <si>
-    <t>Dropdown List for Duration in Interest Transfer Window
-As a bank customer,
-I want a dropdown list of predefined durations in the interest transfer window,
-So that I can select a valid duration instead of entering it manually.
-The interest transfer window should display a dropdown list of durations.
-The durations should be fetched dynamically from the Beacon Pro system.
-Customers should only be able to select from the predefined durations.
-Free text or manual input for duration should be disabled.
-The selected duration should be correctly applied to the interest transfer process.</t>
-  </si>
-  <si>
-    <t>Updated User Story: 
-Dropdown List for Duration in Interest Transfer Window
-As a bank customer,
-I want a dropdown list of predefined durations in the interest transfer window,
-So that I can select a valid duration instead of entering it manually.
-Acceptance Criteria:
-The interest transfer window should display a dropdown list of durations.
-The durations should be fetched dynamically from the Beacon Pro system.
-Customers should only be able to select from the predefined durations.
-Free text or manual input for duration should be disabled.
-The selected duration should be correctly applied to the interest transfer process.
- The Frequency field should display the corresponding month or frequency value (e.g., Monthly, Quarterly) instead of showing the account number.</t>
-  </si>
-  <si>
     <t>MB_-420</t>
   </si>
   <si>
-    <t>Gap- Product knowledge (Mapping)</t>
-  </si>
-  <si>
     <t>Frequency Selection for Interest Transfer</t>
   </si>
   <si>
     <t>Frequency options displayed correctly in dropdown</t>
   </si>
   <si>
-    <t>Automatic Fetching of Senior Citizen ROI Based on Customer ID
-As a senior citizen customer,
-I want the system to automatically fetch my special ROI based on my customer ID,
-So that I receive the correct interest rate without needing manual selection.
-Acceptance Criteria:
-The system should identify if the customer is a senior citizen based on their customer ID.
-If the customer qualifies as a senior citizen, the applicable special ROI should be automatically fetched.
-If no special ROI is available for senior citizens, the system should default to the regular ROI.
-The user should not be able to manually override the fetched ROI.
-The correct ROI should be applied when proceeding with the term deposit.
-If the system fails to fetch the ROI, an appropriate error message should be displayed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updatec User Story: Automatic Fetching of Senior Citizen ROI Based on Customer ID
-As a senior citizen customer,
-I want the system to automatically fetch my special ROI based on my customer ID,
-So that I receive the correct interest rate without needing manual selection.
-Acceptance Criteria:
-The system should identify if the customer is a senior citizen based on their customer ID.
-If the customer qualifies as a senior citizen, the applicable special ROI should be automatically fetched.
-If no special ROI is available for senior citizens, the system should default to the regular ROI.
-The user should not be able to manually override the fetched ROI.
-The correct ROI should be applied when proceeding with the term deposit.
-If the system fails to fetch the ROI, an appropriate error message should be displayed.
-After entering the amount ROI, Maturity Amount, and Maturity Date should auto-populate immediately </t>
-  </si>
-  <si>
     <t>MB_-421</t>
   </si>
   <si>
-    <t>Gap- Product knowledge (Coding Logical issue)</t>
-  </si>
-  <si>
     <t>Enter Invalid FD Amount</t>
   </si>
   <si>
     <t>Maturity amount, date, and ROI must load but not editable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated User Story:
-Automatic Fetching of Senior Citizen ROI Based on Customer ID
-As a senior citizen customer,
-I want the system to automatically fetch my special ROI based on my customer ID,
-So that I receive the correct interest rate without needing manual selection.
-Acceptance Criteria:
-The system should identify if the customer is a senior citizen based on their customer ID.
-If the customer qualifies as a senior citizen, the applicable special ROI should be automatically fetched.
-If no special ROI is available for senior citizens, the system should default to the regular ROI.
-The user should not be able to manually override the fetched ROI.
-The correct ROI should be applied when proceeding with the term deposit.
-If the system fails to fetch the ROI, an appropriate error message should be displayed.
-Aadhar number field should be visible on the nominee page.
-</t>
-  </si>
-  <si>
-    <t>Gap -Product knowledge( missing UI element)</t>
-  </si>
-  <si>
-    <t>Extend News Body Length Limit
-As a user,
-I want the maximum body length for news articles to be increased to 2500 characters,
-So that I can include more detailed information without facing limitations.
-Acceptance Criteria:
-The news body should allow up to 2500 characters instead of the current limit.
-Users should be able to enter and save news articles with a body length of up to 2500 characters.
-The system should display a clear error message if the character limit exceeds 2500.
-Previously saved articles (with fewer characters) should remain unaffected.
-The change should be applied consistently across all relevant input and display screens.</t>
-  </si>
-  <si>
-    <t>Updated user Story:
-Extend News Body Length Limit
-As a user,
-I want the maximum body length for news articles to be increased to 2500 characters,
-So that I can include more detailed information without facing limitations.
-Acceptance Criteria:
-The news body should allow up to 2500 characters instead of the current limit.
-Users should be able to enter and save news articles with a body length of up to 2500 characters.
-The system should display a clear error message if the character limit exceeds 2500.
-Previously saved articles (with fewer characters) should remain unaffected.
-The change should be applied consistently across all relevant input and display screens.
-News content should be fully visible and properly aligned on both web and mobile platforms.</t>
-  </si>
-  <si>
     <t>MB_-426</t>
   </si>
   <si>
-    <t>Responsiveness (Styling/Layout issue )</t>
-  </si>
-  <si>
     <t>Verify News Display - Heading and Content</t>
   </si>
   <si>
     <t>Heading and content show correctly without issues</t>
   </si>
   <si>
-    <t>Display Product Name and Opened Account Number in Term Deposit Request Report
-As a user,
-I want the term deposit request report to include the product name and opened account number,
-So that I can easily identify accounts opened through MyBank without confusion.
-Acceptance Criteria:
-The product name and opened account number should be displayed in the term deposit request report.
-The data should be accurately retrieved from the system and correctly mapped in the report.
-The report format should remain clear and structured after adding the new fields.
-Users should be able to filter or search based on the product name or opened account number if applicable.
-No existing report functionality should be affected by this update.</t>
-  </si>
-  <si>
-    <t>Updated User Story:
-Display Product Name and Opened Account Number in Term Deposit Request Report
-As a user,
-I want the term deposit request report to include the product name and opened account number,
-So that I can easily identify accounts opened through MyBank without confusion.
-Acceptance Criteria:
-The product name and opened account number should be displayed in the term deposit request report.
-The data should be accurately retrieved from the system and correctly mapped in the report.
-The report format should remain clear and structured after adding the new fields.
-Users should be able to filter or search based on the product name or opened account number if applicable.
-No existing report functionality should be affected by this update.
-After proceeding, the app should navigate to the OTP page instead of returning to the interest page.</t>
-  </si>
-  <si>
     <t>MB_-427</t>
   </si>
   <si>
-    <t>Gap - Product Knowledge (Navigation)</t>
-  </si>
-  <si>
     <t>Open FD Account</t>
   </si>
   <si>
     <t>FD account is opened successfully.</t>
   </si>
   <si>
-    <t>Updated User Story:
-Display Product Name and Opened Account Number in Term Deposit Request Report
-As a user,
-I want the term deposit request report to include the product name and opened account number,
-So that I can easily identify accounts opened through MyBank without confusion.
-Acceptance Criteria:
-The product name and opened account number should be displayed in the term deposit request report.
-The data should be accurately retrieved from the system and correctly mapped in the report.
-The report format should remain clear and structured after adding the new fields.
-Users should be able to filter or search based on the product name or opened account number if applicable.
-No existing report functionality should be affected by this update.
-Opened fixed deposits should be displayed in the Term Deposit Requests section.</t>
-  </si>
-  <si>
-    <t>Gap -product knowledge (Data Synchronization)</t>
-  </si>
-  <si>
-    <t>Updated User Story:
-Display Product Name and Opened Account Number in Term Deposit Request Report
-As a user,
-I want the term deposit request report to include the product name and opened account number,
-So that I can easily identify accounts opened through MyBank without confusion.
-Acceptance Criteria:
-The product name and opened account number should be displayed in the term deposit request report.
-The data should be accurately retrieved from the system and correctly mapped in the report.
-The report format should remain clear and structured after adding the new fields.
-Users should be able to filter or search based on the product name or opened account number if applicable.
-No existing report functionality should be affected by this update.
-After clicking the refresh button, the Term Deposit Request window should display updated data without causing the app to hang.</t>
-  </si>
-  <si>
-    <t>Product Knowledge</t>
-  </si>
-  <si>
     <t>Verify FD Account in Report</t>
   </si>
   <si>
     <t>Opened FD account is listed in the report.</t>
   </si>
   <si>
-    <t>View Status of Complained Requests
-As a MyBank app user,
-I want to view the status and details of my complained requests,
-So that I can stay informed about my complaint's progress and bank's response.
-Acceptance Criteria:
-A 'View Status' button should be available under the 'My Request' section.
-When the user clicks on the 'View Status' button, the following details should be displayed:
-Complaint Description
-Complaint Remark (Bank Reply)
-Current Complaint Status (Registered, In Progress, Closed, Reopened)
-The information should be fetched in real-time and accurately reflect the latest complaint status.
-The UI should be user-friendly and follow MyBank app's existing design standards.
-If no complaint exists, display an appropriate message: "No complaint records found."</t>
-  </si>
-  <si>
-    <t>User Story:
-View Status of Complained Requests
-As a MyBank app user,
-I want to view the status and details of my complained requests,
-So that I can stay informed about my complaint's progress and the bank's response.
-Acceptance Criteria:
-A 'View Status' button should be available under the 'My Request' section.
-When the user clicks on the 'View Status' button, the following details should be displayed:
-Complaint Description
-Complaint Remark (Bank Reply)
-Current Complaint Status (Registered, In Progress, Closed, Reopened)
-The information should be fetched in real-time and accurately reflect the latest complaint status.
-The UI should be user-friendly and follow MyBank app's existing design standards.
-If no complaint exists, display an appropriate message: "No complaint records found."
-The View button should be visible in the Request Status window for each complaint entry.</t>
-  </si>
-  <si>
     <t>MB_-354</t>
   </si>
   <si>
@@ -1245,27 +1011,6 @@
     <t>must possible to view successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">User Story:
-View Status of Complained Requests
-As a MyBank app user,
-I want to view the status and details of my complained requests,
-So that I can stay informed about my complaint's progress and the bank's response.
-Acceptance Criteria:
-A 'View Status' button should be available under the 'My Request' section.
-When the user clicks on the 'View Status' button, the following details should be displayed:
-Complaint Description
-Complaint Remark (Bank Reply)
-Current Complaint Status (Registered, In Progress, Closed, Reopened)
-The information should be fetched in real-time and accurately reflect the latest complaint status.
-The UI should be user-friendly and follow MyBank app's existing design standards.
-If no complaint exists, display an appropriate message: "No complaint records found."
-The app should not crash when clicking on the APK, and it should launch properly without any issues.
-</t>
-  </si>
-  <si>
-    <t>post-build validation not performed</t>
-  </si>
-  <si>
     <t>click on the link button many times check app is crashing or not</t>
   </si>
   <si>
@@ -1275,100 +1020,18 @@
     <t>Build and Deployment Issue</t>
   </si>
   <si>
-    <t>Block Same-Bank Fund Transfers for RTGS/NEFT Transactions
-As a MyBank customer,
-I want the system to prevent RTGS/NEFT transactions when transferring funds within the same bank,
-So that I comply with internal banking policies and avoid unnecessary external transaction processing.
-Acceptance Criteria:
-The system should validate the IFSC code before processing an RTGS/NEFT transaction.
-If the sender and recipient IFSC codes belong to the same bank, the transaction should be blocked.
-The system should display an error message:
-"Transaction not allowed: Use internal transfer options for same-bank transactions (Error Code: FBAPI000030)."
-IMPS transactions should not be blocked, as they allow same-bank transfers.
-The system should log the error event for auditing purposes.
-The user should be guided to use alternate transfer methods (e.g., internal bank transfer options).</t>
-  </si>
-  <si>
-    <t>Updated User Story:
-Block Same-Bank Fund Transfers for RTGS/NEFT Transactions
-As a MyBank customer,
-I want the system to prevent RTGS/NEFT transactions when transferring funds within the same bank,
-So that I comply with internal banking policies and avoid unnecessary external transaction processing.
-Acceptance Criteria:
-The system should validate the IFSC code before processing an RTGS/NEFT transaction.
-If the sender and recipient IFSC codes belong to the same bank, the transaction should be blocked.
-The system should display an error message:
-"Transaction not allowed: Use internal transfer options for same-bank transactions (Error Code: FBAPI000030)."
-IMPS transactions should not be blocked, as they allow same-bank transfers.
-The system should log the error event for auditing purposes.
-The user should be guided to use alternate transfer methods (e.g., internal bank transfer options).
-The system should display a validation message when adding an own bank beneficiary in the "Other Bank" section of the EFT window if no bank details are entered.</t>
-  </si>
-  <si>
     <t>MB_-356</t>
   </si>
   <si>
-    <t>Missing validation logic in the backend</t>
-  </si>
-  <si>
     <t>Perform an EFT/IMPS transfer to the own bank beneficiary.</t>
   </si>
   <si>
     <t>Transfer should be successful.</t>
   </si>
   <si>
-    <t>Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.</t>
-  </si>
-  <si>
-    <t>User Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank
-I want to Seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation
-So that I can Quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-App Stability on Login
-The application should not crash when the user attempts to log in.</t>
-  </si>
-  <si>
     <t>MB_-352</t>
   </si>
   <si>
-    <t>App Crash</t>
-  </si>
-  <si>
     <t>open my bank application - login to application </t>
   </si>
   <si>
@@ -1378,373 +1041,46 @@
     <t>Script Missing</t>
   </si>
   <si>
-    <t>User Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank
-I want to Seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation
-So that I can Quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.</t>
-  </si>
-  <si>
-    <t>Updated User Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank
-I want to Seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation
-So that I can Quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: ""No packets available.""
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-""Open Now, Transfer Later"" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-Error Handling
-The loan opening window should open without displaying an ""unknown error occurred" popup.</t>
-  </si>
-  <si>
-    <t>UnhandledException</t>
-  </si>
-  <si>
     <t>now click on gold loan opening banner </t>
   </si>
   <si>
     <t>concent form will be displayed</t>
   </si>
   <si>
-    <t xml:space="preserve">
-User Story:
-Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank,
-I want to seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation,
-So that I can quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-ROI Display
-The ROI (Rate of Interest) should display a maximum of two decimal places after the decimal point.</t>
-  </si>
-  <si>
-    <t>Product Knowledge (Gap -Formatting )</t>
-  </si>
-  <si>
     <t>try to open an gold loan opening - select packet - click on next - summary page will be displayed - enter loan amount - select amount - click on get schemes - select scheme -&gt;check roi decimal shows propely</t>
   </si>
   <si>
     <t>decimal and the format of amount must be correct</t>
   </si>
   <si>
-    <t xml:space="preserve">Updated user Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank,
-I want to seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation,
-So that I can quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-App Navigation for Product Selection: 
-When the user selects "odkcc" as the product, the app should navigate to the corresponding product detail page instead of redirecting to the homepage.
-</t>
-  </si>
-  <si>
-    <t>Product Knowledge (Routing Configuration Issue)</t>
-  </si>
-  <si>
     <t>try to open an odkcc account through mybank application - check drwable amount and other details shows correct in before payment summary page</t>
   </si>
   <si>
     <t>must show correct amount</t>
   </si>
   <si>
-    <t>Updated user Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank,
-I want to seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation,
-So that I can quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-The system must display the correct drawing amount for the "odkcc" account opening based on the predefined calculation logic.</t>
-  </si>
-  <si>
-    <t>Product Knowledge(Data Mapping or Calculation Issue)</t>
-  </si>
-  <si>
     <t>open an odkcc account - summary page will be displayed click on back to home actual result </t>
   </si>
   <si>
     <t>must possible to redirect to home page</t>
   </si>
   <si>
-    <t>Updated user Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank,
-I want to seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation,
-So that I can quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-Users should be able to successfully open an ODKCC account through MyBank, and the drawable amount displayed must accurately reflect the correct available balance.</t>
-  </si>
-  <si>
-    <t>Product Knowledge (Intergation issue between Mybank and ODKCC account)</t>
-  </si>
-  <si>
-    <t>Updated user Story: Automatic Pre-Approved Gold Loan Integration
-As a Customer of My Bank,
-I want to seamlessly apply for and manage a pre-approved gold loan based on my gold packet valuation,
-So that I can quickly receive loan disbursement, renew my loan, and track my gold loan details conveniently.
-Acceptance Criteria:
-Loan Amount Display &amp; Selection
-The system should display the maximum eligible loan amount based on the valuation of gold packets.
-Customers should be able to select one, multiple, or all available unreleased gold packets for the loan application.
-If no unreleased gold packets are available, the system should display a message: "No packets available."
-Loan Renewal Options
-Renew with Additional Loan: The system reassesses the gold packet's current valuation and offers an additional loan based on any value increase.
-Renew without Additional Loan: The loan is extended for another term without modifying the existing loan amount.
-Customers can initiate both custom payments and due payments through the renewal window.
-Customers with a normal gold loan can also renew it via the renewal window.
-Loan Disbursement &amp; Account Options
-The approved loan amount should be credited directly to the customer's account instantly upon approval.
-Customers should have the option to open an Overdraft (OD) account using gold packets.
-"Open Now, Transfer Later" functionality should be available only for OD accounts.
-Security &amp; Visibility
-Customers should be able to view images of their gold security packets in the gold loan application window.
-Only unreleased security packets should be available for selection in the gold loan application.
-Notifications &amp; Communication
-The system should configure SMS and email notifications to inform customers about:
-Loan disbursal or renewal
-Key details such as loan amount, interest rate, tenure, and due date
-Constraints &amp; Exclusions
-Customers cannot manually enter gold weight; valuation is system-driven.
-App should not crash when the back button is clicked on the summary page</t>
-  </si>
-  <si>
-    <t>NullPointer Exception</t>
-  </si>
-  <si>
-    <t>Display Date and Time on Notification and News Screen
-As a user,
-I want to see the date and time of news updates and notifications,
-So that I can easily understand when each update was posted and avoid confusion.
-Acceptance Criteria:
-Each notification should display the date and time when it was received.
-Each news update should show the date and time it was published.
-The date and time format should be consistent across notifications and news.
-The information should be clearly visible without needing additional clicks or interactions.
-The feature should be tested to ensure accuracy and proper display across different devices.</t>
-  </si>
-  <si>
-    <t>User Story:
-Display Date and Time on Notification and News Screen
-As a user,
-I want to see the date and time of news updates and notifications,
-So that I can easily understand when each update was posted and avoid confusion.
-Acceptance Criteria:
-Each notification should display the date and time when it was received.
-Each news update should show the date and time it was published.
-The date and time format should be consistent across notifications and news.
-The information should be clearly visible without needing additional clicks or interactions.
-The feature should be tested to ensure accuracy and proper display across different devices.
-The app should display news notifications correctly and navigate to the news details page without crashing when selecting the "News" option from the floating menu.</t>
-  </si>
-  <si>
     <t>MB_-357</t>
   </si>
   <si>
-    <t>Backend failure or Server side Error handling</t>
-  </si>
-  <si>
     <t>check news in notification and check  settings - news </t>
   </si>
   <si>
     <t>must view added news in notication and also added news must display in news window in setttings</t>
   </si>
   <si>
-    <t>Enable Image Capture and Upload in TDS Exception Marking Window
-As a user of the MY Bank mobile application,
-I want to capture or upload images within the TDS Exception Marking Window,
-So that I can easily submit required documents for TDS exception processing.
-Acceptance Criteria:
-Image Capture Functionality:
-Users can use their device’s camera to capture images directly within the application.
-The captured image should be clear, readable, and properly formatted for submission.
-Image Upload Functionality:
-Users can upload existing images from their device storage.
-Supported formats should include JPEG, PNG, and PDF.
-User Experience &amp; Validation:
-Users should receive a preview option before submitting an image.
-The system should provide error messages for unsupported file types or corrupted images.
-Images should be compressed/optimized for fast upload without compromising quality.
-Security &amp; Compliance:
-Uploaded images should be securely stored and encrypted.
-The system should not allow unauthorized access to uploaded files.</t>
-  </si>
-  <si>
-    <t>User Story:
-Enable Image Capture and Upload in TDS Exception Marking Window
-As a user of the MY Bank mobile application,
-I want to capture or upload images within the TDS Exception Marking Window,
-So that I can easily submit required documents for TDS exception processing.
-Acceptance Criteria:
- Image Capture Functionality:
-Users can use their device’s camera to capture images directly within the application.
-The captured image should be clear, readable, and properly formatted for submission.
-Image Upload Functionality:
-Users can upload existing images from their device storage.
-Supported formats should include JPEG, PNG, and PDF.
- User Experience &amp; Validation:
-Users should receive a preview option before submitting an image.
-The system should provide error messages for unsupported file types or corrupted images.
-Images should be compressed/optimized for fast upload without compromising quality.
- Security &amp; Compliance:
-Uploaded images should be securely stored and encrypted.
-The system should not allow unauthorized access to uploaded files.
- Error Handling:
-The system should not return a 500 Internal Server Error when marking a TDS exemption</t>
-  </si>
-  <si>
     <t>MB_-350</t>
   </si>
   <si>
-    <t>Unhandled backend exception</t>
-  </si>
-  <si>
     <t>upload document and check document upload done successfully</t>
   </si>
   <si>
     <t>must possible to upload successfully</t>
-  </si>
-  <si>
-    <t>Block Same-Bank Fund Transfers for RTGS/NEFT Transactions
-As a MyBank customer,
-I want the system to prevent RTGS/NEFT transactions when transferring funds within the same bank,
-So that I comply with internal banking policies and avoid unnecessary external transaction processing.
-Acceptance Criteria:
-The system should validate the IFSC code before processing an RTGS/NEFT transaction.
-If the sender and recipient IFSC codes belong to the same bank, the transaction should be blocked.
-The system should display an error message:
-"Transaction not allowed: Use internal transfer options for same-bank transactions (Error Code: FBAPI000030)."
-IMPS transactions should not be blocked, as they allow same-bank transfers.
-The system should log the error event for auditing purposes.
-The user should be guided to use alternate transfer methods (e.g., internal bank transfer options).
- The EFT Outward table must display the correct IFSC code and show the
- transfer type in a readable format instead of a numeric value.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Mapping issue </t>
   </si>
   <si>
     <t>ID</t>
@@ -1937,7 +1273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1953,31 +1289,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2008,8 +1321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2032,52 +1351,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2134,42 +1412,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2464,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2473,11 +1726,12 @@
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="60.75">
+    <row r="1" spans="1:10" ht="45.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2529,12 +1783,10 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="22">
-        <v>2</v>
-      </c>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
@@ -2556,10 +1808,8 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="26">
-        <v>2</v>
-      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
@@ -2581,10 +1831,8 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="23">
-        <v>7</v>
-      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -2606,14 +1854,12 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="24" t="s">
-        <v>15</v>
-      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -2631,14 +1877,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="25">
-        <v>1</v>
-      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
@@ -2656,14 +1900,12 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="25">
-        <v>1</v>
-      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
@@ -2681,16 +1923,14 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="23">
-        <v>3</v>
-      </c>
+      <c r="I8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
@@ -2708,14 +1948,12 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="25">
-        <v>1</v>
-      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>4</v>
@@ -2733,14 +1971,12 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="25">
-        <v>2</v>
-      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
         <v>7</v>
@@ -2758,12 +1994,12 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -2781,14 +2017,12 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="23">
-        <v>1</v>
-      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
@@ -2806,10 +2040,8 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="25">
-        <v>3</v>
-      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" s="18" customFormat="1">
       <c r="A14" s="14">
@@ -2831,10 +2063,10 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="I14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2858,8 +2090,8 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="11">
+      <c r="I15" s="23"/>
+      <c r="J15" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2883,9 +2115,9 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="32"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2908,8 +2140,8 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="15">
+      <c r="I17" s="23"/>
+      <c r="J17" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2933,7 +2165,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="11">
         <v>1</v>
       </c>
@@ -2943,7 +2175,7 @@
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="13">
         <f>AVERAGE(E2:E18)</f>
@@ -2968,341 +2200,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="39.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="147" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9">
       <c r="A1" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="300">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="17">
         <v>45452</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45.75">
+    </row>
+    <row r="3" spans="1:9" ht="409.5">
       <c r="A3" s="17">
         <v>45442</v>
       </c>
-      <c r="B3" s="17"/>
+      <c r="B3" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="C3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="24" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="17" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="17">
         <v>45528</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="C4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="17" t="s">
         <v>47</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="17">
         <v>45436</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="17">
         <v>45437</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="G6" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="H6" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.5">
       <c r="A7" s="17">
         <v>45623</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="G7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="I7" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.5">
       <c r="A8" s="17">
         <v>45582</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="409.5">
       <c r="A9" s="17">
         <v>45601</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>54</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="409.5">
       <c r="A10" s="17">
         <v>45405</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D10" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.5">
       <c r="A11" s="17">
         <v>45549</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="409.5">
       <c r="A12" s="17">
         <v>45386</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>70</v>
@@ -3311,27 +2547,27 @@
         <v>71</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="409.5">
       <c r="A13" s="17">
         <v>45516</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>73</v>
@@ -3340,128 +2576,130 @@
         <v>74</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="375">
       <c r="A14" s="17">
         <v>45389</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.5">
       <c r="A15" s="17">
         <v>45413</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.5">
       <c r="A16" s="17">
         <v>45414</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="409.5">
       <c r="A17" s="17">
         <v>45415</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="409.5">
       <c r="A18" s="17">
         <v>45550</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17" t="s">
@@ -3471,48 +2709,48 @@
         <v>82</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="375">
       <c r="A19" s="17">
         <v>45603</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="24"/>
       <c r="H19" s="17" t="s">
         <v>85</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="409.5">
       <c r="A20" s="17">
         <v>45434</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="24" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="14"/>
@@ -3526,10 +2764,10 @@
         <v>90</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="409.5">
       <c r="A21" s="17">
         <v>45461</v>
       </c>
@@ -3539,20 +2777,20 @@
       <c r="C21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="24"/>
       <c r="H21" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="409.5">
       <c r="A22" s="17">
         <v>45472</v>
       </c>
@@ -3562,7 +2800,7 @@
       <c r="C22" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="14"/>
       <c r="F22" s="17" t="s">
         <v>93</v>
@@ -3571,13 +2809,13 @@
         <v>94</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="409.5">
       <c r="A23" s="17">
         <v>45518</v>
       </c>
@@ -3601,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="381.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="360">
       <c r="A24" s="17">
         <v>45372</v>
       </c>
@@ -3614,22 +2852,20 @@
       <c r="C24" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="409.5">
       <c r="A25" s="17">
         <v>45293</v>
       </c>
@@ -3637,26 +2873,24 @@
         <v>101</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="17" t="s">
+      <c r="G25" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="381.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="345">
       <c r="A26" s="17">
         <v>45298</v>
       </c>
@@ -3664,569 +2898,448 @@
         <v>101</v>
       </c>
       <c r="C26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" s="17">
         <v>45299</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>115</v>
-      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>117</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E27" s="14"/>
       <c r="F27" s="17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="17">
         <v>45339</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="17"/>
       <c r="F28" s="17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="17">
         <v>45341</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="17">
         <v>45297</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>129</v>
-      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>131</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E30" s="17"/>
       <c r="F30" s="17" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="17">
         <v>45306</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>137</v>
-      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="17"/>
       <c r="F31" s="17" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="17">
         <v>45333</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="17">
         <v>45371</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="14"/>
       <c r="F33" s="17" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="17">
         <v>43090</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>143</v>
-      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="14"/>
       <c r="F34" s="17" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="H34" s="17" t="s">
         <v>90</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="17">
         <v>43115</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="14" t="s">
-        <v>152</v>
-      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="14"/>
       <c r="F35" s="17" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="17">
         <v>43081</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>157</v>
-      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>159</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E36" s="14"/>
       <c r="F36" s="17" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="17">
         <v>42887</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="14"/>
       <c r="F37" s="17" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="17">
         <v>42903</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" t="s">
-        <v>171</v>
-      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="14"/>
       <c r="F38" s="17" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90">
       <c r="A39" s="17">
         <v>43001</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="14" t="s">
-        <v>175</v>
-      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="17" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="60">
       <c r="A40" s="17">
         <v>43202</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="14" t="s">
-        <v>179</v>
-      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="14"/>
       <c r="F40" s="17" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="17">
         <v>43207</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="17" t="s">
-        <v>183</v>
-      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="17" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="409.5" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="58.5" customHeight="1">
       <c r="A42" s="17">
         <v>43227</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="10" t="s">
-        <v>187</v>
-      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="10"/>
       <c r="F42" s="17" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="17">
         <v>43239</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="10" t="s">
-        <v>189</v>
-      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="17" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>85</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="409.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="17">
         <v>43166</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>191</v>
-      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>193</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="E44" s="10"/>
       <c r="F44" s="17" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>90</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="409.6">
-      <c r="A45" s="29">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45" s="17">
         <v>43165</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="H45" s="29" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H45" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="I45" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="409.6">
-      <c r="A46" s="27">
-        <v>43041</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
+      <c r="I45" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I45" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="21">
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F24:H24"/>
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F11:G11"/>
@@ -4235,19 +3348,6 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D37:D43"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4255,12 +3355,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B137745-ED5E-421F-9F91-05B588541767}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4273,21 +3384,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30.75">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>45386</v>
@@ -4295,8 +3406,8 @@
       <c r="C2">
         <v>5555</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>207</v>
+      <c r="D2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4310,10 +3421,10 @@
         <v>5555</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45.75">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="14" t="s">
         <v>44</v>
       </c>
@@ -4323,13 +3434,13 @@
       <c r="C4">
         <v>5555</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>209</v>
+      <c r="D4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>45413</v>
@@ -4338,12 +3449,12 @@
         <v>5555</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>45414</v>
@@ -4352,12 +3463,12 @@
         <v>5555</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>45415</v>
@@ -4366,12 +3477,12 @@
         <v>5555</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8">
         <v>45434</v>
@@ -4380,12 +3491,12 @@
         <v>5556</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>45436</v>
@@ -4394,12 +3505,12 @@
         <v>5555</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>45437</v>
@@ -4408,12 +3519,12 @@
         <v>5555</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>45442</v>
@@ -4422,12 +3533,12 @@
         <v>5553</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>45452</v>
@@ -4436,12 +3547,12 @@
         <v>5552</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>45461</v>
@@ -4450,12 +3561,12 @@
         <v>5556</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>45472</v>
@@ -4464,12 +3575,12 @@
         <v>5556</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>45516</v>
@@ -4478,12 +3589,12 @@
         <v>5555</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>45518</v>
@@ -4492,12 +3603,12 @@
         <v>5558</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30.75">
       <c r="A17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>45528</v>
@@ -4505,13 +3616,13 @@
       <c r="C17">
         <v>5553</v>
       </c>
-      <c r="D17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75">
+      <c r="D17" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>45549</v>
@@ -4519,13 +3630,13 @@
       <c r="C18">
         <v>5555</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>223</v>
+      <c r="D18" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19">
         <v>45550</v>
@@ -4534,7 +3645,7 @@
         <v>5555</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4548,7 +3659,7 @@
         <v>5555</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4562,7 +3673,7 @@
         <v>5555</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4576,10 +3687,10 @@
         <v>5555</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" s="14" t="s">
         <v>97</v>
       </c>
@@ -4590,10 +3701,10 @@
         <v>5555</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" hidden="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="14" t="s">
         <v>103</v>
       </c>
@@ -4601,183 +3712,183 @@
         <v>45293</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" hidden="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="14" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="B25">
         <v>45297</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="14" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="B26">
         <v>45298</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" hidden="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <v>45299</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" hidden="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B28">
         <v>45306</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B29">
         <v>45333</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="14" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>45339</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="14" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>45341</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="14" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B32">
         <v>45371</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" hidden="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>45372</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" hidden="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="14" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B34">
         <v>42887</v>
       </c>
       <c r="C34" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" hidden="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>42903</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" hidden="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="14" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B36">
         <v>43001</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" hidden="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <v>43081</v>
@@ -4786,12 +3897,12 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B38">
         <v>43090</v>
@@ -4800,12 +3911,12 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" hidden="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B39">
         <v>43115</v>
@@ -4814,105 +3925,95 @@
         <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B40">
         <v>43165</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B41">
         <v>43166</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" hidden="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B42">
         <v>43202</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="14" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B43">
         <v>43207</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" hidden="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="14" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B44">
         <v>43227</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" hidden="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="B45">
         <v>43239</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D45" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FCM-740"/>
-        <filter val="FCM-741"/>
-        <filter val="FCM-742"/>
-        <filter val="FCM-744"/>
-        <filter val="Not Available"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D45" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <conditionalFormatting sqref="B2:B45">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
@@ -4920,7 +4021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -4937,14 +4038,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="105">
+    <row r="2" spans="1:3" ht="45">
       <c r="A2" s="5" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="B2" s="6">
         <v>20000</v>
@@ -4953,57 +4054,57 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="B3" s="6">
         <v>4000</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="75">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="5" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="5" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="9" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="9" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="9" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +4112,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D361A86-F03F-4816-9F32-56D701804131}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -5022,15 +4146,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5294,11 +4409,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B7757C-AD3B-44BA-8575-D9A7FA3FFDC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0263589-D857-4001-91D8-AAB3F39616B8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0263589-D857-4001-91D8-AAB3F39616B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02B7757C-AD3B-44BA-8575-D9A7FA3FFDC7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
